--- a/Fishers Iris Dataset Results.xlsx
+++ b/Fishers Iris Dataset Results.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\K-Means\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-440" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-435" windowWidth="25605" windowHeight="16005" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Cluster 1 DL</t>
   </si>
@@ -54,7 +59,13 @@
     <t>Experiment Number</t>
   </si>
   <si>
-    <t>Fisher's Iris Dataset, K-means (k = 3)</t>
+    <t>No. Iterations to Convergence</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>Fisher's Iris Dataset, K-means (k = 3), centroid mode</t>
   </si>
 </sst>
 </file>
@@ -102,12 +113,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -147,7 +164,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -158,6 +175,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -174,6 +195,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -499,455 +528,572 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L14"/>
+  <dimension ref="B2:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.125" customWidth="1"/>
+    <col min="3" max="3" width="1.375" customWidth="1"/>
+    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.375" customWidth="1"/>
+    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.375" customWidth="1"/>
+    <col min="12" max="12" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="1.375" customWidth="1"/>
+    <col min="16" max="16" width="27" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="5"/>
+      <c r="L4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="O4" s="5"/>
+      <c r="P4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="R4" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="5"/>
+      <c r="D5" s="2">
         <v>36</v>
       </c>
-      <c r="D5" s="2">
-        <v>39</v>
-      </c>
       <c r="E5" s="2">
-        <f>ROUND(C5/D5*100, 1)</f>
-        <v>92.3</v>
+        <v>38</v>
       </c>
       <c r="F5" s="2">
-        <v>50</v>
-      </c>
-      <c r="G5" s="2">
-        <v>50</v>
-      </c>
+        <f>ROUND(D5/E5*100, 1)</f>
+        <v>94.7</v>
+      </c>
+      <c r="G5" s="5"/>
       <c r="H5" s="2">
-        <f>ROUND(F5/G5 * 100, 1)</f>
+        <v>50</v>
+      </c>
+      <c r="I5" s="2">
+        <v>50</v>
+      </c>
+      <c r="J5" s="2">
+        <f>ROUND(H5/I5 * 100, 1)</f>
         <v>100</v>
       </c>
-      <c r="I5" s="2">
-        <v>47</v>
-      </c>
-      <c r="J5" s="2">
-        <v>61</v>
-      </c>
-      <c r="K5" s="2">
-        <f>ROUND(I5/J5 * 100, 1)</f>
-        <v>77</v>
-      </c>
+      <c r="K5" s="5"/>
       <c r="L5" s="2">
-        <v>1.302</v>
+        <v>48</v>
+      </c>
+      <c r="M5" s="2">
+        <v>62</v>
+      </c>
+      <c r="N5" s="2">
+        <f>ROUND(L5/M5 * 100, 1)</f>
+        <v>77.400000000000006</v>
+      </c>
+      <c r="O5" s="5"/>
+      <c r="P5" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>1.274</v>
+      </c>
+      <c r="R5" s="2">
+        <v>1103.376</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="2">
-        <v>30</v>
-      </c>
+      <c r="C6" s="5"/>
       <c r="D6" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" ref="E6:E14" si="0">ROUND(C6/D6*100, 1)</f>
+        <v>50</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" ref="F6:F14" si="0">ROUND(D6/E6*100, 1)</f>
         <v>100</v>
       </c>
-      <c r="F6" s="2">
-        <v>20</v>
-      </c>
-      <c r="G6" s="2">
-        <v>24</v>
-      </c>
+      <c r="G6" s="5"/>
       <c r="H6" s="2">
-        <f t="shared" ref="H6:H14" si="1">ROUND(F6/G6 * 100, 1)</f>
-        <v>83.3</v>
+        <v>47</v>
       </c>
       <c r="I6" s="2">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="J6" s="2">
-        <v>96</v>
-      </c>
-      <c r="K6" s="2">
-        <f t="shared" ref="K6:K14" si="2">ROUND(I6/J6 * 100, 1)</f>
-        <v>52.1</v>
-      </c>
+        <f t="shared" ref="J6:J14" si="1">ROUND(H6/I6 * 100, 1)</f>
+        <v>77</v>
+      </c>
+      <c r="K6" s="5"/>
       <c r="L6" s="2">
-        <v>1.7969999999999999</v>
+        <v>36</v>
+      </c>
+      <c r="M6" s="2">
+        <v>39</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" ref="N6:N14" si="2">ROUND(L6/M6 * 100, 1)</f>
+        <v>92.3</v>
+      </c>
+      <c r="O6" s="5"/>
+      <c r="P6" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>2.0264000000000002</v>
+      </c>
+      <c r="R6" s="2">
+        <v>1728.8681999999999</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>3</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="5"/>
+      <c r="D7" s="2">
+        <v>48</v>
+      </c>
+      <c r="E7" s="2">
+        <v>62</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>77.400000000000006</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="2">
         <v>36</v>
       </c>
-      <c r="D7" s="2">
+      <c r="I7" s="2">
+        <v>38</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="1"/>
+        <v>94.7</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="2">
+        <v>50</v>
+      </c>
+      <c r="M7" s="2">
+        <v>50</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="O7" s="5"/>
+      <c r="P7" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>1.4814000000000001</v>
+      </c>
+      <c r="R7" s="2">
+        <v>2882.9623999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="2">
+        <v>36</v>
+      </c>
+      <c r="E8" s="2">
         <v>39</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F8" s="2">
         <f t="shared" si="0"/>
         <v>92.3</v>
       </c>
-      <c r="F7" s="2">
-        <v>50</v>
-      </c>
-      <c r="G7" s="2">
-        <v>50</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="G8" s="5"/>
+      <c r="H8" s="2">
+        <v>50</v>
+      </c>
+      <c r="I8" s="2">
+        <v>50</v>
+      </c>
+      <c r="J8" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K8" s="5"/>
+      <c r="L8" s="2">
         <v>47</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M8" s="2">
+        <v>31</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" si="2"/>
+        <v>151.6</v>
+      </c>
+      <c r="O8" s="5"/>
+      <c r="P8" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>1.3015000000000001</v>
+      </c>
+      <c r="R8" s="2">
+        <v>1147.4602</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="2">
+        <v>48</v>
+      </c>
+      <c r="E9" s="2">
+        <v>62</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>77.400000000000006</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="2">
+        <v>36</v>
+      </c>
+      <c r="I9" s="2">
+        <v>38</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="1"/>
+        <v>94.7</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="2">
+        <v>50</v>
+      </c>
+      <c r="M9" s="2">
+        <v>50</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="O9" s="5"/>
+      <c r="P9" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>1.4814000000000001</v>
+      </c>
+      <c r="R9" s="2">
+        <v>2882.9623999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="2">
+        <v>24</v>
+      </c>
+      <c r="E10" s="2">
+        <v>24</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="2">
+        <v>26</v>
+      </c>
+      <c r="I10" s="2">
+        <v>29</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="1"/>
+        <v>89.7</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="2">
+        <v>50</v>
+      </c>
+      <c r="M10" s="2">
+        <v>97</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" si="2"/>
+        <v>51.5</v>
+      </c>
+      <c r="O10" s="5"/>
+      <c r="P10" s="2">
+        <v>7</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>1.4906999999999999</v>
+      </c>
+      <c r="R10" s="2">
+        <v>316.87689999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="2">
+        <v>36</v>
+      </c>
+      <c r="E11" s="2">
+        <v>39</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>92.3</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="2">
+        <v>50</v>
+      </c>
+      <c r="I11" s="2">
+        <v>50</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="2">
+        <v>47</v>
+      </c>
+      <c r="M11" s="2">
         <v>61</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N11" s="2">
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
-      <c r="L7" s="2">
-        <v>1.302</v>
+      <c r="O11" s="5"/>
+      <c r="P11" s="2">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>1.3015000000000001</v>
+      </c>
+      <c r="R11" s="2">
+        <v>1147.4602</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="2">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2">
-        <v>28</v>
-      </c>
-      <c r="D8" s="2">
-        <v>31</v>
-      </c>
-      <c r="E8" s="2">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="2">
+        <v>50</v>
+      </c>
+      <c r="E12" s="2">
+        <v>50</v>
+      </c>
+      <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>90.3</v>
-      </c>
-      <c r="F8" s="2">
-        <v>22</v>
-      </c>
-      <c r="G8" s="2">
-        <v>22</v>
-      </c>
-      <c r="H8" s="2">
+        <v>100</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="2">
+        <v>36</v>
+      </c>
+      <c r="I12" s="2">
+        <v>39</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="1"/>
+        <v>92.3</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="2">
+        <v>47</v>
+      </c>
+      <c r="M12" s="2">
+        <v>61</v>
+      </c>
+      <c r="N12" s="2">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="O12" s="5"/>
+      <c r="P12" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>1.6486000000000001</v>
+      </c>
+      <c r="R12" s="2">
+        <v>1147.4602</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="2">
+        <v>50</v>
+      </c>
+      <c r="E13" s="2">
+        <v>50</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="2">
+        <v>36</v>
+      </c>
+      <c r="I13" s="2">
+        <v>38</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="1"/>
+        <v>94.7</v>
+      </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="2">
+        <v>48</v>
+      </c>
+      <c r="M13" s="2">
+        <v>62</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" si="2"/>
+        <v>77.400000000000006</v>
+      </c>
+      <c r="O13" s="5"/>
+      <c r="P13" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>1.6285000000000001</v>
+      </c>
+      <c r="R13" s="2">
+        <v>1103.376</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>10</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="2">
+        <v>36</v>
+      </c>
+      <c r="E14" s="2">
+        <v>39</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>92.3</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="2">
+        <v>50</v>
+      </c>
+      <c r="I14" s="2">
+        <v>50</v>
+      </c>
+      <c r="J14" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="I8" s="2">
-        <v>50</v>
-      </c>
-      <c r="J8" s="2">
-        <v>97</v>
-      </c>
-      <c r="K8" s="2">
-        <f t="shared" si="2"/>
-        <v>51.5</v>
-      </c>
-      <c r="L8" s="2">
-        <v>2.3279999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="2">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2">
-        <v>50</v>
-      </c>
-      <c r="D9" s="2">
-        <v>50</v>
-      </c>
-      <c r="E9" s="2">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="F9" s="2">
-        <v>48</v>
-      </c>
-      <c r="G9" s="2">
-        <v>62</v>
-      </c>
-      <c r="H9" s="2">
-        <f t="shared" si="1"/>
-        <v>77.400000000000006</v>
-      </c>
-      <c r="I9" s="2">
-        <v>36</v>
-      </c>
-      <c r="J9" s="2">
-        <v>38</v>
-      </c>
-      <c r="K9" s="2">
-        <f t="shared" si="2"/>
-        <v>94.7</v>
-      </c>
-      <c r="L9" s="2">
-        <v>2.0529999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12">
-      <c r="B10" s="2">
-        <v>6</v>
-      </c>
-      <c r="C10" s="2">
-        <v>36</v>
-      </c>
-      <c r="D10" s="2">
-        <v>39</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" si="0"/>
-        <v>92.3</v>
-      </c>
-      <c r="F10" s="2">
+      <c r="K14" s="5"/>
+      <c r="L14" s="2">
         <v>47</v>
       </c>
-      <c r="G10" s="2">
+      <c r="M14" s="2">
         <v>61</v>
       </c>
-      <c r="H10" s="2">
-        <f t="shared" si="1"/>
-        <v>77</v>
-      </c>
-      <c r="I10" s="2">
-        <v>50</v>
-      </c>
-      <c r="J10" s="2">
-        <v>50</v>
-      </c>
-      <c r="K10" s="2">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="L10" s="2">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12">
-      <c r="B11" s="2">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2">
-        <v>47</v>
-      </c>
-      <c r="D11" s="2">
-        <v>61</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="0"/>
-        <v>77</v>
-      </c>
-      <c r="F11" s="2">
-        <v>50</v>
-      </c>
-      <c r="G11" s="2">
-        <v>50</v>
-      </c>
-      <c r="H11" s="2">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="I11" s="2">
-        <v>36</v>
-      </c>
-      <c r="J11" s="2">
-        <v>39</v>
-      </c>
-      <c r="K11" s="2">
-        <f t="shared" si="2"/>
-        <v>92.3</v>
-      </c>
-      <c r="L11" s="2">
-        <v>1.804</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12">
-      <c r="B12" s="2">
-        <v>8</v>
-      </c>
-      <c r="C12" s="2">
-        <v>36</v>
-      </c>
-      <c r="D12" s="2">
-        <v>38</v>
-      </c>
-      <c r="E12" s="2">
-        <f t="shared" si="0"/>
-        <v>94.7</v>
-      </c>
-      <c r="F12" s="2">
-        <v>50</v>
-      </c>
-      <c r="G12" s="2">
-        <v>50</v>
-      </c>
-      <c r="H12" s="2">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="I12" s="2">
-        <v>48</v>
-      </c>
-      <c r="J12" s="2">
-        <v>62</v>
-      </c>
-      <c r="K12" s="2">
-        <f t="shared" si="2"/>
-        <v>77.400000000000006</v>
-      </c>
-      <c r="L12" s="2">
-        <v>1.274</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12">
-      <c r="B13" s="2">
-        <v>9</v>
-      </c>
-      <c r="C13" s="2">
-        <v>36</v>
-      </c>
-      <c r="D13" s="2">
-        <v>39</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="0"/>
-        <v>92.3</v>
-      </c>
-      <c r="F13" s="2">
-        <v>50</v>
-      </c>
-      <c r="G13" s="2">
-        <v>50</v>
-      </c>
-      <c r="H13" s="2">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="I13" s="2">
-        <v>47</v>
-      </c>
-      <c r="J13" s="2">
-        <v>61</v>
-      </c>
-      <c r="K13" s="2">
+      <c r="N14" s="2">
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
-      <c r="L13" s="2">
-        <v>1.302</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="2">
+      <c r="O14" s="5"/>
+      <c r="P14" s="2">
         <v>10</v>
       </c>
-      <c r="C14" s="2">
-        <v>36</v>
-      </c>
-      <c r="D14" s="2">
-        <v>38</v>
-      </c>
-      <c r="E14" s="2">
-        <f t="shared" si="0"/>
-        <v>94.7</v>
-      </c>
-      <c r="F14" s="2">
-        <v>48</v>
-      </c>
-      <c r="G14" s="2">
-        <v>62</v>
-      </c>
-      <c r="H14" s="2">
-        <f t="shared" si="1"/>
-        <v>77.400000000000006</v>
-      </c>
-      <c r="I14" s="2">
-        <v>50</v>
-      </c>
-      <c r="J14" s="2">
-        <v>50</v>
-      </c>
-      <c r="K14" s="2">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="L14" s="2">
-        <v>1.0569999999999999</v>
+      <c r="Q14" s="2">
+        <v>1.3015000000000001</v>
+      </c>
+      <c r="R14" s="2">
+        <v>1147.4602</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B2:D2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
